--- a/specs/excel/GameSpec.xlsx
+++ b/specs/excel/GameSpec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11780"/>
+    <workbookView windowHeight="11780" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="3" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="222">
   <si>
     <t>道具ID</t>
   </si>
@@ -282,10 +282,7 @@
     <t>Coin</t>
   </si>
   <si>
-    <t>树</t>
-  </si>
-  <si>
-    <t>仙树可掉落物品</t>
+    <t>仙树</t>
   </si>
   <si>
     <t>铁斧子</t>
@@ -399,39 +396,75 @@
     <t>财神</t>
   </si>
   <si>
+    <t>facai_v1</t>
+  </si>
+  <si>
     <t>台子</t>
   </si>
   <si>
+    <t>maotai_v1</t>
+  </si>
+  <si>
     <t>我爱你</t>
   </si>
   <si>
+    <t>loveScroll_v1</t>
+  </si>
+  <si>
     <t>告白蛋糕</t>
   </si>
   <si>
+    <t>loveCake_v2</t>
+  </si>
+  <si>
     <t>蓝色妖姬</t>
   </si>
   <si>
+    <t>blueRose_v1</t>
+  </si>
+  <si>
     <t>星空钻戒</t>
   </si>
   <si>
+    <t>starRing_v1</t>
+  </si>
+  <si>
     <t>梦幻花船</t>
   </si>
   <si>
+    <t>dreamBoat_v1</t>
+  </si>
+  <si>
     <t>梦幻游艇</t>
   </si>
   <si>
+    <t>dreamCruise_v1</t>
+  </si>
+  <si>
     <t>爱的华尔兹</t>
   </si>
   <si>
+    <t>loveDance_v1</t>
+  </si>
+  <si>
     <t>帝王套</t>
   </si>
   <si>
+    <t>luxuryPerpson_v1</t>
+  </si>
+  <si>
     <t>无敌金龙</t>
   </si>
   <si>
+    <t>dragon_v3</t>
+  </si>
+  <si>
     <t>如来神掌</t>
   </si>
   <si>
+    <t>rulaishenzhang_v1</t>
+  </si>
+  <si>
     <t>斧子等级</t>
   </si>
   <si>
@@ -462,7 +495,7 @@
     <t>[6000,3000,100,0,0,0,0,0,0,0,0,0]</t>
   </si>
   <si>
-    <t>[501,502,503,504,505,506,507,508,509,510,511,512]</t>
+    <t>[311,312,212,252,224,313,247,253,251,48,315,316]</t>
   </si>
   <si>
     <t>[6000,3000,500,0,0,0,0,0,0,0,0,0]</t>
@@ -839,10 +872,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -874,7 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,15 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,18 +937,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -935,6 +990,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -957,6 +1013,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -964,9 +1028,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,39 +1042,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,30 +1082,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1085,13 +1094,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,19 +1142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1190,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,73 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,16 +1310,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,15 +1335,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,17 +1365,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,85 +1393,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1447,65 +1480,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1526,7 +1559,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1857,21 +1896,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.5089285714286" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.6785714285714" style="8" customWidth="1"/>
-    <col min="3" max="4" width="17.5535714285714" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.9285714285714" style="8" customWidth="1"/>
-    <col min="6" max="10" width="17.5535714285714" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.4732142857143" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="16.5089285714286" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6785714285714" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.5535714285714" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.9285714285714" style="9" customWidth="1"/>
+    <col min="6" max="10" width="17.5535714285714" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.4732142857143" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:20">
@@ -2047,7 +2086,7 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" ht="17.55" spans="1:20">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2060,18 +2099,22 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2083,11 +2126,11 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" ht="17.55" spans="1:20">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -2096,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2110,7 +2153,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2123,11 +2166,11 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" ht="17.55" spans="1:20">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -2136,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -2150,7 +2193,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2163,11 +2206,11 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" ht="17.55" spans="1:20">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -2176,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2190,7 +2233,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2207,7 +2250,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -2216,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2230,7 +2273,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2247,7 +2290,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
@@ -2256,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2274,7 +2317,7 @@
         <v>107</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2291,7 +2334,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -2300,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2314,7 +2357,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2326,12 +2369,12 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:20">
+    <row r="12" ht="17.55" spans="1:20">
       <c r="A12" s="4">
         <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4">
         <v>6</v>
@@ -2340,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -2354,7 +2397,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2366,12 +2409,12 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" ht="17.55" spans="1:20">
+    <row r="13" ht="15" customHeight="1" spans="1:20">
       <c r="A13" s="4">
         <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -2380,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -2394,7 +2437,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2411,7 +2454,7 @@
         <v>203</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4">
         <v>6</v>
@@ -2420,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -2434,7 +2477,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2451,7 +2494,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4">
         <v>6</v>
@@ -2460,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -2474,7 +2517,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2491,7 +2534,7 @@
         <v>205</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -2500,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -2514,7 +2557,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2531,7 +2574,7 @@
         <v>206</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4">
         <v>6</v>
@@ -2540,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -2554,7 +2597,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2567,11 +2610,11 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" ht="17.55" spans="1:20">
-      <c r="A18" s="4">
-        <v>501</v>
+      <c r="A18" s="8">
+        <v>311</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
@@ -2591,8 +2634,8 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4" t="s">
-        <v>49</v>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2605,8 +2648,8 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" ht="17.55" spans="1:20">
-      <c r="A19" s="4">
-        <v>502</v>
+      <c r="A19" s="8">
+        <v>312</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -2629,8 +2672,8 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4" t="s">
-        <v>52</v>
+      <c r="K19" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2643,11 +2686,11 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" ht="17.55" spans="1:20">
-      <c r="A20" s="4">
-        <v>503</v>
+      <c r="A20" s="8">
+        <v>212</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
@@ -2667,8 +2710,8 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4" t="s">
-        <v>55</v>
+      <c r="K20" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2681,11 +2724,11 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" ht="17.55" spans="1:20">
-      <c r="A21" s="4">
-        <v>504</v>
+      <c r="A21" s="8">
+        <v>252</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
@@ -2705,8 +2748,8 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4" t="s">
-        <v>58</v>
+      <c r="K21" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2719,11 +2762,11 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" ht="17.55" spans="1:20">
-      <c r="A22" s="4">
-        <v>505</v>
+      <c r="A22" s="8">
+        <v>224</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
@@ -2743,8 +2786,8 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4" t="s">
-        <v>61</v>
+      <c r="K22" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2757,11 +2800,11 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" ht="17.55" spans="1:20">
-      <c r="A23" s="4">
-        <v>506</v>
+      <c r="A23" s="8">
+        <v>313</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
@@ -2781,8 +2824,8 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4" t="s">
-        <v>64</v>
+      <c r="K23" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2795,11 +2838,11 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" ht="17.55" spans="1:20">
-      <c r="A24" s="4">
-        <v>507</v>
+      <c r="A24" s="8">
+        <v>247</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
@@ -2819,8 +2862,8 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="4" t="s">
-        <v>49</v>
+      <c r="K24" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2833,11 +2876,11 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" ht="17.55" spans="1:20">
-      <c r="A25" s="4">
-        <v>508</v>
+      <c r="A25" s="8">
+        <v>253</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
@@ -2857,8 +2900,8 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4" t="s">
-        <v>52</v>
+      <c r="K25" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2871,11 +2914,11 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" ht="17.55" spans="1:20">
-      <c r="A26" s="4">
-        <v>509</v>
+      <c r="A26" s="8">
+        <v>251</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -2895,8 +2938,8 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4" t="s">
-        <v>55</v>
+      <c r="K26" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2909,11 +2952,11 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" ht="17.55" spans="1:20">
-      <c r="A27" s="4">
-        <v>510</v>
+      <c r="A27" s="8">
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4">
         <v>5</v>
@@ -2928,13 +2971,13 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="11">
         <v>28888</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="4" t="s">
-        <v>58</v>
+      <c r="K27" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2947,11 +2990,11 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" ht="17.55" spans="1:20">
-      <c r="A28" s="4">
-        <v>511</v>
+      <c r="A28" s="8">
+        <v>315</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
         <v>5</v>
@@ -2966,13 +3009,12 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="12">
         <v>52000</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4" t="s">
-        <v>61</v>
+      <c r="K28" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2985,11 +3027,11 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" ht="17.55" spans="1:20">
-      <c r="A29" s="4">
-        <v>512</v>
+      <c r="A29" s="8">
+        <v>316</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <v>5</v>
@@ -3004,13 +3046,13 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="13">
         <v>99999</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4" t="s">
-        <v>64</v>
+      <c r="K29" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -3021,6 +3063,94 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
+    </row>
+    <row r="30" ht="17.55" spans="1:20">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" ht="17.55" spans="1:20">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" ht="17.55" spans="1:20">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" ht="17.55" spans="1:20">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3035,7 +3165,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3052,28 +3182,28 @@
   <sheetData>
     <row r="1" ht="17.55" spans="1:21">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -3091,28 +3221,28 @@
     </row>
     <row r="2" ht="17.55" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3145,10 +3275,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>23</v>
@@ -3175,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D4" s="5">
         <v>105</v>
@@ -3190,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3214,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D5" s="5">
         <v>105</v>
@@ -3229,7 +3359,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -3253,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D6" s="5">
         <v>105</v>
@@ -3262,13 +3392,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3292,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D7" s="5">
         <v>105</v>
@@ -3301,13 +3431,13 @@
         <v>999</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -3331,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D8" s="5">
         <v>105</v>
@@ -3346,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -3370,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D9" s="5">
         <v>105</v>
@@ -3385,7 +3515,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -3409,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5">
         <v>105</v>
@@ -3418,13 +3548,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -3448,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D11" s="5">
         <v>105</v>
@@ -3457,13 +3587,13 @@
         <v>999</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3487,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D12" s="5">
         <v>105</v>
@@ -3502,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3526,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D13" s="5">
         <v>105</v>
@@ -3541,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3565,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D14" s="5">
         <v>105</v>
@@ -3574,13 +3704,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3745,8 +3875,8 @@
   <sheetPr/>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3761,22 +3891,22 @@
   <sheetData>
     <row r="1" ht="17.55" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3796,22 +3926,22 @@
     </row>
     <row r="2" ht="17.55" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3834,7 +3964,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
@@ -3869,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1">
         <v>1500</v>
@@ -3904,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -3939,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -3974,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -4009,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -4044,7 +4174,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1">
         <v>1500</v>
@@ -4327,32 +4457,32 @@
   <sheetPr/>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A23"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.5089285714286" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.57142857142857" style="8" customWidth="1"/>
-    <col min="3" max="3" width="66.6428571428571" style="8" customWidth="1"/>
-    <col min="4" max="4" width="50.4285714285714" style="8" customWidth="1"/>
-    <col min="5" max="10" width="17.5535714285714" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="16.5089285714286" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.57142857142857" style="9" customWidth="1"/>
+    <col min="3" max="3" width="66.6428571428571" style="9" customWidth="1"/>
+    <col min="4" max="4" width="50.4285714285714" style="9" customWidth="1"/>
+    <col min="5" max="10" width="17.5535714285714" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="1" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4371,18 +4501,18 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="2" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4401,7 +4531,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="3" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4409,10 +4539,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -4431,7 +4561,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="4" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4439,10 +4569,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4461,7 +4591,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="5" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4469,10 +4599,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4491,7 +4621,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="6" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4499,10 +4629,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4521,7 +4651,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="7" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4529,10 +4659,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4551,7 +4681,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="8" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -4559,10 +4689,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4581,7 +4711,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="9" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -4589,10 +4719,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4611,7 +4741,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="10" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4619,10 +4749,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4641,7 +4771,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="11" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4649,10 +4779,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4671,7 +4801,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="12" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4679,10 +4809,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4701,7 +4831,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="13" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4709,10 +4839,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4731,7 +4861,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="14" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4739,10 +4869,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4761,7 +4891,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="15" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4769,10 +4899,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4791,7 +4921,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="16" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4799,10 +4929,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4821,7 +4951,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="17" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4829,10 +4959,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4851,7 +4981,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="18" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4859,10 +4989,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4881,7 +5011,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="19" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4889,10 +5019,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4911,7 +5041,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="20" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4919,10 +5049,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4941,7 +5071,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="21" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4949,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4971,7 +5101,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="22" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4979,10 +5109,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5001,7 +5131,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="23" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -5009,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -5031,7 +5161,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="24" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5039,10 +5169,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5061,7 +5191,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="25" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -5069,10 +5199,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5091,7 +5221,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="26" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -5099,10 +5229,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5121,7 +5251,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="27" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -5129,10 +5259,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5151,7 +5281,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="28" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -5159,10 +5289,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5181,7 +5311,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="29" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -5189,10 +5319,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -5211,7 +5341,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="30" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -5219,10 +5349,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -5241,7 +5371,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="31" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -5249,10 +5379,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -5271,7 +5401,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="32" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -5279,10 +5409,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -5301,7 +5431,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="33" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -5309,10 +5439,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -5331,7 +5461,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="34" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -5339,10 +5469,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5361,7 +5491,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="35" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -5369,10 +5499,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5391,7 +5521,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="36" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -5399,10 +5529,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5421,7 +5551,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="37" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -5429,10 +5559,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5451,7 +5581,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="38" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -5459,10 +5589,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5481,7 +5611,7 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="39" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A39" s="4">
         <v>16</v>
       </c>
@@ -5489,10 +5619,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5511,7 +5641,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="40" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A40" s="4">
         <v>17</v>
       </c>
@@ -5519,10 +5649,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5541,7 +5671,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="41" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A41" s="4">
         <v>18</v>
       </c>
@@ -5549,10 +5679,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5571,7 +5701,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="42" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A42" s="4">
         <v>19</v>
       </c>
@@ -5579,10 +5709,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5601,7 +5731,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="43" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A43" s="4">
         <v>20</v>
       </c>
@@ -5609,10 +5739,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5631,7 +5761,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="44" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -5639,10 +5769,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5661,7 +5791,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="45" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -5669,10 +5799,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5691,7 +5821,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="46" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A46" s="4">
         <v>3</v>
       </c>
@@ -5699,10 +5829,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5721,7 +5851,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="47" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A47" s="4">
         <v>4</v>
       </c>
@@ -5729,10 +5859,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5751,7 +5881,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="48" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -5759,10 +5889,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5781,7 +5911,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="49" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A49" s="4">
         <v>6</v>
       </c>
@@ -5789,10 +5919,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -5811,7 +5941,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="50" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A50" s="4">
         <v>7</v>
       </c>
@@ -5819,10 +5949,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5841,7 +5971,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="51" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -5849,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -5871,7 +6001,7 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="52" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A52" s="4">
         <v>9</v>
       </c>
@@ -5879,10 +6009,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -5901,7 +6031,7 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="53" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A53" s="4">
         <v>10</v>
       </c>
@@ -5909,10 +6039,10 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5931,7 +6061,7 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="54" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A54" s="4">
         <v>11</v>
       </c>
@@ -5939,10 +6069,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5961,7 +6091,7 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="55" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A55" s="4">
         <v>12</v>
       </c>
@@ -5969,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -5991,7 +6121,7 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="56" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A56" s="4">
         <v>13</v>
       </c>
@@ -5999,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -6021,7 +6151,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="57" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A57" s="4">
         <v>14</v>
       </c>
@@ -6029,10 +6159,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6051,7 +6181,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="58" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A58" s="4">
         <v>15</v>
       </c>
@@ -6059,10 +6189,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -6081,7 +6211,7 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="59" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A59" s="4">
         <v>16</v>
       </c>
@@ -6089,10 +6219,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -6111,7 +6241,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
     </row>
-    <row r="60" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="60" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A60" s="4">
         <v>17</v>
       </c>
@@ -6119,10 +6249,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6149,10 +6279,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6179,10 +6309,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -6209,10 +6339,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -6244,38 +6374,38 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G23"/>
+      <selection activeCell="A1" sqref="A1:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.5089285714286" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.6785714285714" style="8" customWidth="1"/>
-    <col min="3" max="10" width="17.5535714285714" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="16.5089285714286" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6785714285714" style="9" customWidth="1"/>
+    <col min="3" max="10" width="17.5535714285714" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="1" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6291,27 +6421,27 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="2" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6327,7 +6457,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="3" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -6363,7 +6493,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="4" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -6399,7 +6529,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="5" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -7096,38 +7226,38 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G23"/>
+      <selection activeCell="A1" sqref="A1:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.5089285714286" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.6785714285714" style="8" customWidth="1"/>
-    <col min="3" max="10" width="17.5535714285714" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="16.5089285714286" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6785714285714" style="9" customWidth="1"/>
+    <col min="3" max="10" width="17.5535714285714" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="1" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -7143,27 +7273,27 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="2" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7179,7 +7309,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="3" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -7215,7 +7345,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="4" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -7251,7 +7381,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" s="8" customFormat="1" ht="17.55" spans="1:20">
+    <row r="5" s="9" customFormat="1" ht="17.55" spans="1:20">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -7945,138 +8075,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.6160714285714" customWidth="1"/>
     <col min="3" max="3" width="15.3214285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>205</v>
-      </c>
-      <c r="B8">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>206</v>
-      </c>
-      <c r="B9">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="1" max="1" width="9.21428571428571" customWidth="1"/>
-    <col min="2" max="7" width="11.6428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" ht="17.55" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>143</v>
@@ -8087,860 +8097,7 @@
       <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" ht="17.55" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" ht="17.55" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" ht="17.55" spans="1:20">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" ht="17.55" spans="1:20">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" ht="17.55" spans="1:20">
-      <c r="A6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" ht="17.55" spans="1:20">
-      <c r="A7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" ht="17.55" spans="1:20">
-      <c r="A8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20002</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" ht="17.55" spans="1:20">
-      <c r="A9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" ht="17.55" spans="1:20">
-      <c r="A10" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" ht="17.55" spans="1:20">
-      <c r="A11" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" ht="17.55" spans="1:20">
-      <c r="A12" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" ht="17.55" spans="1:20">
-      <c r="A13" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" ht="17.55" spans="1:20">
-      <c r="A14" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" ht="17.55" spans="1:20">
-      <c r="A15" s="1">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D15" s="1">
-        <v>30001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" ht="17.55" spans="1:20">
-      <c r="A16" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30001</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" ht="17.55" spans="1:20">
-      <c r="A17" s="1">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D17" s="1">
-        <v>30001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" ht="17.55" spans="1:20">
-      <c r="A18" s="1">
-        <v>1015</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" ht="17.55" spans="1:20">
-      <c r="A19" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>30002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" ht="17.55" spans="1:20">
-      <c r="A20" s="1">
-        <v>1017</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D20" s="1">
-        <v>30002</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" ht="17.55" spans="1:20">
-      <c r="A21" s="1">
-        <v>1018</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D21" s="1">
-        <v>30002</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" ht="17.55" spans="1:20">
-      <c r="A22" s="1">
-        <v>1019</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D22" s="1">
-        <v>30002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" ht="17.55" spans="1:20">
-      <c r="A23" s="1">
-        <v>1020</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>30003</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="10.4196428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.55" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8960,17 +8117,15 @@
     </row>
     <row r="2" ht="17.55" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8996,11 +8151,9 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9020,17 +8173,15 @@
     </row>
     <row r="4" ht="17.55" spans="1:20">
       <c r="A4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="4">
-        <v>501</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9050,17 +8201,15 @@
     </row>
     <row r="5" ht="17.55" spans="1:20">
       <c r="A5" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>502</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B5" s="1">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -9080,17 +8229,15 @@
     </row>
     <row r="6" ht="17.55" spans="1:20">
       <c r="A6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="4">
-        <v>503</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -9110,17 +8257,15 @@
     </row>
     <row r="7" ht="17.55" spans="1:20">
       <c r="A7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="4">
-        <v>504</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -9140,17 +8285,15 @@
     </row>
     <row r="8" ht="17.55" spans="1:20">
       <c r="A8" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B8" s="4">
-        <v>505</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B8" s="1">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -9170,17 +8313,15 @@
     </row>
     <row r="9" ht="17.55" spans="1:20">
       <c r="A9" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B9" s="4">
-        <v>506</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -9199,18 +8340,10 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" ht="17.55" spans="1:20">
-      <c r="A10" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B10" s="4">
-        <v>507</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -9229,18 +8362,10 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" ht="17.55" spans="1:20">
-      <c r="A11" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B11" s="4">
-        <v>507</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -9259,18 +8384,10 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" ht="17.55" spans="1:20">
-      <c r="A12" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B12" s="4">
-        <v>508</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -9289,24 +8406,16 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" ht="17.55" spans="1:20">
-      <c r="A13" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B13" s="4">
-        <v>507</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1">
-        <v>30</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9319,24 +8428,16 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" ht="17.55" spans="1:20">
-      <c r="A14" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B14" s="4">
-        <v>508</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -9349,18 +8450,10 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" ht="17.55" spans="1:20">
-      <c r="A15" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B15" s="4">
-        <v>509</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -9379,18 +8472,10 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" ht="17.55" spans="1:20">
-      <c r="A16" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B16" s="4">
-        <v>510</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -9409,18 +8494,10 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" ht="17.55" spans="1:20">
-      <c r="A17" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B17" s="4">
-        <v>510</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -9439,18 +8516,10 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" ht="17.55" spans="1:20">
-      <c r="A18" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B18" s="4">
-        <v>511</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -9469,18 +8538,10 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" ht="17.55" spans="1:20">
-      <c r="A19" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B19" s="4">
-        <v>510</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="1">
-        <v>30</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -9499,18 +8560,10 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" ht="17.55" spans="1:20">
-      <c r="A20" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B20" s="4">
-        <v>511</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -9528,15 +8581,1487 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="9.21428571428571" customWidth="1"/>
+    <col min="2" max="7" width="11.6428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.55" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" ht="17.55" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" ht="17.55" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" ht="17.55" spans="1:20">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" ht="17.55" spans="1:20">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" ht="17.55" spans="1:20">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" ht="17.55" spans="1:20">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" ht="17.55" spans="1:20">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" ht="17.55" spans="1:20">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="17.55" spans="1:20">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" ht="17.55" spans="1:20">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" ht="17.55" spans="1:20">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" ht="17.55" spans="1:20">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" ht="17.55" spans="1:20">
+      <c r="A14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" ht="17.55" spans="1:20">
+      <c r="A15" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" ht="17.55" spans="1:20">
+      <c r="A16" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" ht="17.55" spans="1:20">
+      <c r="A17" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" ht="17.55" spans="1:20">
+      <c r="A18" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" ht="17.55" spans="1:20">
+      <c r="A19" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" ht="17.55" spans="1:20">
+      <c r="A20" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" ht="17.55" spans="1:20">
+      <c r="A21" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" ht="17.55" spans="1:20">
+      <c r="A22" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" ht="17.55" spans="1:20">
+      <c r="A23" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30003</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.55" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" ht="17.55" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" ht="17.55" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" ht="17.55" spans="1:20">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="8">
+        <v>311</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" ht="17.55" spans="1:20">
+      <c r="A5" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="8">
+        <v>312</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" ht="17.55" spans="1:20">
+      <c r="A6" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>212</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" ht="17.55" spans="1:20">
+      <c r="A7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>252</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" ht="17.55" spans="1:20">
+      <c r="A8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="8">
+        <v>224</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" ht="17.55" spans="1:20">
+      <c r="A9" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B9" s="8">
+        <v>313</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="17.55" spans="1:20">
+      <c r="A10" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B10" s="8">
+        <v>247</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" ht="17.55" spans="1:20">
+      <c r="A11" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B11" s="8">
+        <v>247</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" ht="17.55" spans="1:20">
+      <c r="A12" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B12" s="8">
+        <v>253</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" ht="17.55" spans="1:20">
+      <c r="A13" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B13" s="8">
+        <v>247</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" ht="17.55" spans="1:20">
+      <c r="A14" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B14" s="8">
+        <v>253</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" ht="17.55" spans="1:20">
+      <c r="A15" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B15" s="8">
+        <v>251</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" ht="17.55" spans="1:20">
+      <c r="A16" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B16" s="8">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" ht="17.55" spans="1:20">
+      <c r="A17" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B17" s="8">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" ht="17.55" spans="1:20">
+      <c r="A18" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B18" s="8">
+        <v>315</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" ht="17.55" spans="1:20">
+      <c r="A19" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B19" s="8">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" ht="17.55" spans="1:20">
+      <c r="A20" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B20" s="8">
+        <v>315</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
     <row r="21" ht="17.55" spans="1:20">
       <c r="A21" s="1">
         <v>30003</v>
       </c>
-      <c r="B21" s="4">
-        <v>512</v>
+      <c r="B21" s="8">
+        <v>316</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -9570,7 +10095,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B23"/>
+      <selection activeCell="A1" sqref="A1:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -9581,10 +10106,10 @@
   <sheetData>
     <row r="1" ht="17.55" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -9607,10 +10132,10 @@
     </row>
     <row r="2" ht="17.55" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10189,7 +10714,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -10200,10 +10725,10 @@
   <sheetData>
     <row r="1" ht="17.55" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -10226,10 +10751,10 @@
     </row>
     <row r="2" ht="17.55" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10280,8 +10805,8 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>501</v>
+      <c r="B4" s="8">
+        <v>311</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
@@ -10306,8 +10831,8 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
-        <v>502</v>
+      <c r="B5" s="8">
+        <v>312</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
@@ -10332,8 +10857,8 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>503</v>
+      <c r="B6" s="8">
+        <v>212</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -10358,8 +10883,8 @@
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>504</v>
+      <c r="B7" s="8">
+        <v>252</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
@@ -10384,8 +10909,8 @@
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
-        <v>505</v>
+      <c r="B8" s="8">
+        <v>224</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
@@ -10410,8 +10935,8 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>506</v>
+      <c r="B9" s="8">
+        <v>313</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10436,8 +10961,8 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
-        <v>507</v>
+      <c r="B10" s="8">
+        <v>247</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10462,8 +10987,8 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>508</v>
+      <c r="B11" s="8">
+        <v>253</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10488,8 +11013,8 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>509</v>
+      <c r="B12" s="8">
+        <v>251</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10514,8 +11039,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>510</v>
+      <c r="B13" s="8">
+        <v>48</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10540,8 +11065,8 @@
       <c r="A14" s="1">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>511</v>
+      <c r="B14" s="8">
+        <v>315</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10566,8 +11091,8 @@
       <c r="A15" s="1">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
-        <v>512</v>
+      <c r="B15" s="8">
+        <v>316</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
